--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shibuya\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEBC777-4133-4168-A04C-C5EFA51C3C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225C186-7A69-4EC1-9DA8-FD1B04848B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44594.76091041667" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44596.814289236114" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1152,22 +1152,22 @@
   <r>
     <s v="k03a"/>
     <n v="2102"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 12:00"/>
     <x v="2"/>
     <n v="420"/>
-    <n v="2102"/>
-    <n v="2.1019999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k03b"/>
     <n v="1142"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 12:00"/>
     <x v="2"/>
     <n v="228"/>
-    <n v="1142"/>
-    <n v="1.1419999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k04a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2244,10 +2244,10 @@
         <v>17690</v>
       </c>
       <c r="O4" s="5">
-        <v>17690</v>
+        <v>14446</v>
       </c>
       <c r="P4" s="5">
-        <v>17.689999999999998</v>
+        <v>14.446000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2753,10 +2753,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>181929.28</v>
+        <v>178685.28</v>
       </c>
       <c r="P17" s="5">
-        <v>181.92927999999995</v>
+        <v>178.68527999999992</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3592,7 +3592,9 @@
       <c r="B48">
         <v>2102</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>92</v>
       </c>
@@ -3605,11 +3607,11 @@
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" si="5"/>
-        <v>2.1019999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3619,7 +3621,9 @@
       <c r="B49">
         <v>1142</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>92</v>
       </c>
@@ -3632,11 +3636,11 @@
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>1142</v>
+        <v>0</v>
       </c>
       <c r="H49">
         <f t="shared" si="5"/>
-        <v>1.1419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -4818,7 +4822,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.12450659762658689</v>
+        <v>0.14011761195753647</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4827,11 +4831,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>181929.28</v>
+        <v>178685.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>181.92928000000009</v>
+        <v>178.68528000000006</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A225C186-7A69-4EC1-9DA8-FD1B04848B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A7EA4-A970-40D2-8213-1539859056D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44596.814289236114" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44600.011942245372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -732,22 +732,22 @@
   <r>
     <s v="a03a"/>
     <n v="2887"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 12:00"/>
     <x v="2"/>
     <n v="577"/>
-    <n v="2887"/>
-    <n v="2.887"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a03b"/>
     <n v="372"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 12:00"/>
     <x v="2"/>
     <n v="74"/>
-    <n v="372"/>
-    <n v="0.372"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a04a"/>
@@ -942,22 +942,22 @@
   <r>
     <s v="f03a"/>
     <n v="2817"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 12:00"/>
     <x v="2"/>
     <n v="563"/>
-    <n v="2817"/>
-    <n v="2.8170000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f03b"/>
     <n v="1357"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 12:00"/>
     <x v="2"/>
     <n v="271"/>
-    <n v="1357"/>
-    <n v="1.357"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f04a"/>
@@ -2244,10 +2244,10 @@
         <v>17690</v>
       </c>
       <c r="O4" s="5">
-        <v>14446</v>
+        <v>7013</v>
       </c>
       <c r="P4" s="5">
-        <v>14.446000000000002</v>
+        <v>7.0129999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,9 @@
       <c r="B6">
         <v>2887</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>83</v>
       </c>
@@ -2311,11 +2313,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>2887</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>2.887</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>157</v>
@@ -2337,7 +2339,9 @@
       <c r="B7">
         <v>372</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>83</v>
       </c>
@@ -2350,11 +2354,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.372</v>
+        <v>0</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>158</v>
@@ -2753,10 +2757,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>178685.28</v>
+        <v>171252.28</v>
       </c>
       <c r="P17" s="5">
-        <v>178.68527999999992</v>
+        <v>171.25227999999998</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3017,7 +3021,9 @@
       <c r="B27">
         <v>2817</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
       <c r="D27" t="s">
         <v>100</v>
       </c>
@@ -3030,11 +3036,11 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>2817</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>2.8170000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -3044,7 +3050,9 @@
       <c r="B28">
         <v>1357</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>100</v>
       </c>
@@ -3057,11 +3065,11 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>1357</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>1.357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -4822,7 +4830,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.14011761195753647</v>
+        <v>0.17588723881387092</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4831,11 +4839,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>178685.28</v>
+        <v>171252.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>178.68528000000006</v>
+        <v>171.25228000000007</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6A7EA4-A970-40D2-8213-1539859056D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2824F3E-FC91-4B08-8485-98CE7E31B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44600.011942245372" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44604.461389004631" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1312,22 +1312,22 @@
   <r>
     <s v="m03a"/>
     <n v="1927"/>
-    <m/>
+    <n v="1"/>
     <s v="Тама 12:00"/>
     <x v="2"/>
     <n v="385"/>
-    <n v="1927"/>
-    <n v="1.927"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m03b"/>
     <n v="807"/>
-    <m/>
+    <n v="1"/>
     <s v="Тама 12:00"/>
     <x v="2"/>
     <n v="161"/>
-    <n v="807"/>
-    <n v="0.80700000000000005"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m04a"/>
@@ -1432,22 +1432,22 @@
   <r>
     <s v="o03a"/>
     <n v="3097"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 12:00"/>
     <x v="2"/>
     <n v="619"/>
-    <n v="3097"/>
-    <n v="3.097"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o03b"/>
     <n v="1182"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 12:00"/>
     <x v="2"/>
     <n v="236"/>
-    <n v="1182"/>
-    <n v="1.1819999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o04a"/>
@@ -2244,10 +2244,10 @@
         <v>17690</v>
       </c>
       <c r="O4" s="5">
-        <v>7013</v>
+        <v>0</v>
       </c>
       <c r="P4" s="5">
-        <v>7.0129999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2757,10 +2757,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>171252.28</v>
+        <v>164239.28</v>
       </c>
       <c r="P17" s="5">
-        <v>171.25227999999998</v>
+        <v>164.23927999999998</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4040,7 +4040,9 @@
       <c r="B64">
         <v>1927</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
       <c r="D64" t="s">
         <v>142</v>
       </c>
@@ -4053,11 +4055,11 @@
       </c>
       <c r="G64">
         <f t="shared" si="4"/>
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="H64">
         <f t="shared" si="5"/>
-        <v>1.927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4067,7 +4069,9 @@
       <c r="B65">
         <v>807</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
       <c r="D65" t="s">
         <v>142</v>
       </c>
@@ -4080,11 +4084,11 @@
       </c>
       <c r="G65">
         <f t="shared" si="4"/>
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <f t="shared" si="5"/>
-        <v>0.80700000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -4368,7 +4372,9 @@
       <c r="B76">
         <v>3097</v>
       </c>
-      <c r="C76" s="1"/>
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
       <c r="D76" t="s">
         <v>126</v>
       </c>
@@ -4381,11 +4387,11 @@
       </c>
       <c r="G76">
         <f t="shared" si="7"/>
-        <v>3097</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <f t="shared" si="8"/>
-        <v>3.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -4395,7 +4401,9 @@
       <c r="B77">
         <v>1182</v>
       </c>
-      <c r="C77" s="1"/>
+      <c r="C77" s="1">
+        <v>1</v>
+      </c>
       <c r="D77" t="s">
         <v>126</v>
       </c>
@@ -4408,11 +4416,11 @@
       </c>
       <c r="G77">
         <f t="shared" si="7"/>
-        <v>1182</v>
+        <v>0</v>
       </c>
       <c r="H77">
         <f t="shared" si="8"/>
-        <v>1.1819999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4830,7 +4838,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.17588723881387092</v>
+        <v>0.20963571091712307</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4839,11 +4847,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>171252.28</v>
+        <v>164239.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>171.25228000000007</v>
+        <v>164.23928000000004</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2824F3E-FC91-4B08-8485-98CE7E31B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C681A5E-6E65-4A66-84B4-83F5B999D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44604.461389004631" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44605.754178009258" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -752,22 +752,22 @@
   <r>
     <s v="a04a"/>
     <n v="3032"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 13:00"/>
     <x v="3"/>
     <n v="606"/>
-    <n v="3032"/>
-    <n v="3.032"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a04b"/>
     <n v="1122"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 13:00"/>
     <x v="3"/>
     <n v="224"/>
-    <n v="1122"/>
-    <n v="1.1220000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a05a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2285,10 +2285,10 @@
         <v>21565</v>
       </c>
       <c r="O5" s="5">
-        <v>21565</v>
+        <v>17411</v>
       </c>
       <c r="P5" s="5">
-        <v>21.564999999999998</v>
+        <v>17.411000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2380,7 +2380,9 @@
       <c r="B8">
         <v>3032</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>84</v>
       </c>
@@ -2393,11 +2395,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>3032</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>3.032</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>159</v>
@@ -2419,7 +2421,9 @@
       <c r="B9">
         <v>1122</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>84</v>
       </c>
@@ -2432,11 +2436,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>1122</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>1.1220000000000001</v>
+        <v>0</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>160</v>
@@ -2757,10 +2761,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>164239.28</v>
+        <v>160085.28</v>
       </c>
       <c r="P17" s="5">
-        <v>164.23927999999998</v>
+        <v>160.08527999999998</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4838,7 +4842,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.20963571091712307</v>
+        <v>0.22962589387975096</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4847,11 +4851,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>164239.28</v>
+        <v>160085.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>164.23928000000004</v>
+        <v>160.08528000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C681A5E-6E65-4A66-84B4-83F5B999D139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD7782-67F0-4EAA-AB4C-734E758FE879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44605.754178009258" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44607.738868171298" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -962,22 +962,22 @@
   <r>
     <s v="f04a"/>
     <n v="2432"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 13:00"/>
     <x v="3"/>
     <n v="486"/>
-    <n v="2432"/>
-    <n v="2.4319999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f04b"/>
     <n v="1497"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 13:00"/>
     <x v="3"/>
     <n v="299"/>
-    <n v="1497"/>
-    <n v="1.4970000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f05a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2285,10 +2285,10 @@
         <v>21565</v>
       </c>
       <c r="O5" s="5">
-        <v>17411</v>
+        <v>13482</v>
       </c>
       <c r="P5" s="5">
-        <v>17.411000000000001</v>
+        <v>13.481999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>160085.28</v>
+        <v>156156.28</v>
       </c>
       <c r="P17" s="5">
-        <v>160.08527999999998</v>
+        <v>156.15628000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,9 @@
       <c r="B29">
         <v>2432</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
         <v>101</v>
       </c>
@@ -3096,11 +3098,11 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>2432</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>2.4319999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -3110,7 +3112,9 @@
       <c r="B30">
         <v>1497</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>101</v>
       </c>
@@ -3123,11 +3127,11 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>1.4970000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -4842,7 +4846,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.22962589387975096</v>
+        <v>0.24853331536751333</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4851,11 +4855,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>160085.28</v>
+        <v>156156.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>160.08528000000001</v>
+        <v>156.15628000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25012"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FD7782-67F0-4EAA-AB4C-734E758FE879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DF6BE-86BE-426C-B5B6-81C0458ED1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44607.738868171298" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44608.84229212963" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1172,22 +1172,22 @@
   <r>
     <s v="k04a"/>
     <n v="2462"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 13:00"/>
     <x v="3"/>
     <n v="492"/>
-    <n v="2462"/>
-    <n v="2.4620000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k04b"/>
     <n v="1402"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 13:00"/>
     <x v="3"/>
     <n v="280"/>
-    <n v="1402"/>
-    <n v="1.4019999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k05a"/>
@@ -2285,10 +2285,10 @@
         <v>21565</v>
       </c>
       <c r="O5" s="5">
-        <v>13482</v>
+        <v>9618</v>
       </c>
       <c r="P5" s="5">
-        <v>13.481999999999999</v>
+        <v>9.6180000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>156156.28</v>
+        <v>152292.28</v>
       </c>
       <c r="P17" s="5">
-        <v>156.15628000000001</v>
+        <v>152.29228000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3666,7 +3666,9 @@
       <c r="B50">
         <v>2462</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>93</v>
       </c>
@@ -3679,11 +3681,11 @@
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>2462</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" si="5"/>
-        <v>2.4620000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3693,7 +3695,9 @@
       <c r="B51">
         <v>1402</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>93</v>
       </c>
@@ -3706,11 +3710,11 @@
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>1402</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <f t="shared" si="5"/>
-        <v>1.4019999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -4846,7 +4850,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.24853331536751333</v>
+        <v>0.26712793909587007</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4855,11 +4859,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>156156.28</v>
+        <v>152292.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>156.15628000000001</v>
+        <v>152.29228000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DF6BE-86BE-426C-B5B6-81C0458ED1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A80F5C5-AE1A-43DA-985B-9AFAFECD64F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44608.84229212963" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44613.437400347226" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1332,22 +1332,22 @@
   <r>
     <s v="m04a"/>
     <n v="3642"/>
-    <m/>
+    <n v="1"/>
     <s v="Тама 13:00"/>
     <x v="3"/>
     <n v="728"/>
-    <n v="3642"/>
-    <n v="3.6419999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m04b"/>
     <n v="1747"/>
-    <m/>
+    <n v="1"/>
     <s v="Тама 13:00"/>
     <x v="3"/>
     <n v="349"/>
-    <n v="1747"/>
-    <n v="1.7470000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m05a"/>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAEE22D-3FB6-43AE-82AA-7ED7AEBDF78D}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,10 +2285,10 @@
         <v>21565</v>
       </c>
       <c r="O5" s="5">
-        <v>9618</v>
+        <v>4229</v>
       </c>
       <c r="P5" s="5">
-        <v>9.6180000000000003</v>
+        <v>4.2290000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>152292.28</v>
+        <v>146903.28</v>
       </c>
       <c r="P17" s="5">
-        <v>152.29228000000001</v>
+        <v>146.90328000000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4110,7 +4110,9 @@
       <c r="B66">
         <v>3642</v>
       </c>
-      <c r="C66" s="1"/>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
       <c r="D66" t="s">
         <v>143</v>
       </c>
@@ -4123,11 +4125,11 @@
       </c>
       <c r="G66">
         <f t="shared" ref="G66:G92" si="7">B66-B66*C66</f>
-        <v>3642</v>
+        <v>0</v>
       </c>
       <c r="H66">
         <f t="shared" ref="H66:H92" si="8">G66/K$2</f>
-        <v>3.6419999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -4137,7 +4139,9 @@
       <c r="B67">
         <v>1747</v>
       </c>
-      <c r="C67" s="1"/>
+      <c r="C67" s="1">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
         <v>143</v>
       </c>
@@ -4150,11 +4154,11 @@
       </c>
       <c r="G67">
         <f t="shared" si="7"/>
-        <v>1747</v>
+        <v>0</v>
       </c>
       <c r="H67">
         <f t="shared" si="8"/>
-        <v>1.7470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -4850,7 +4854,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.26712793909587007</v>
+        <v>0.29306127948720417</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4859,11 +4863,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>152292.28</v>
+        <v>146903.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>152.29228000000001</v>
+        <v>146.90328</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A80F5C5-AE1A-43DA-985B-9AFAFECD64F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CC086-43C3-4878-8B47-93741F7CC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44613.437400347226" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44614.046838194445" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1452,22 +1452,22 @@
   <r>
     <s v="o04a"/>
     <n v="2947"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 13:00"/>
     <x v="3"/>
     <n v="589"/>
-    <n v="2947"/>
-    <n v="2.9470000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o04b"/>
     <n v="1282"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 13:00"/>
     <x v="3"/>
     <n v="256"/>
-    <n v="1282"/>
-    <n v="1.282"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o05a"/>
@@ -2055,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAEE22D-3FB6-43AE-82AA-7ED7AEBDF78D}">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,10 +2285,10 @@
         <v>21565</v>
       </c>
       <c r="O5" s="5">
-        <v>4229</v>
+        <v>0</v>
       </c>
       <c r="P5" s="5">
-        <v>4.2290000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2761,10 +2761,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>146903.28</v>
+        <v>142674.28</v>
       </c>
       <c r="P17" s="5">
-        <v>146.90328000000002</v>
+        <v>142.67428000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4446,7 +4446,9 @@
       <c r="B78">
         <v>2947</v>
       </c>
-      <c r="C78" s="1"/>
+      <c r="C78" s="1">
+        <v>1</v>
+      </c>
       <c r="D78" t="s">
         <v>127</v>
       </c>
@@ -4459,11 +4461,11 @@
       </c>
       <c r="G78">
         <f t="shared" si="7"/>
-        <v>2947</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <f t="shared" si="8"/>
-        <v>2.9470000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -4473,7 +4475,9 @@
       <c r="B79">
         <v>1282</v>
       </c>
-      <c r="C79" s="1"/>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
       <c r="D79" t="s">
         <v>127</v>
       </c>
@@ -4486,11 +4490,11 @@
       </c>
       <c r="G79">
         <f t="shared" si="7"/>
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <f t="shared" si="8"/>
-        <v>1.282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,7 +4858,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.29306127948720417</v>
+        <v>0.3134123829414539</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4863,11 +4867,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>146903.28</v>
+        <v>142674.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>146.90328</v>
+        <v>142.67428000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25018"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3CC086-43C3-4878-8B47-93741F7CC79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34EB297-CE43-4E7A-86D1-7005D1AAEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="12" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44614.046838194445" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44617.068676157411" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -772,22 +772,22 @@
   <r>
     <s v="a05a"/>
     <n v="3572"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 14:00"/>
     <x v="4"/>
     <n v="714"/>
-    <n v="3572"/>
-    <n v="3.5720000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a05b"/>
     <n v="867"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 14:00"/>
     <x v="4"/>
     <n v="173"/>
-    <n v="867"/>
-    <n v="0.86699999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a06a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2326,10 +2326,10 @@
         <v>19395</v>
       </c>
       <c r="O6" s="5">
-        <v>19395</v>
+        <v>14956</v>
       </c>
       <c r="P6" s="5">
-        <v>19.395</v>
+        <v>14.956</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2462,7 +2462,9 @@
       <c r="B10">
         <v>3572</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
@@ -2475,11 +2477,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3572</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>3.5720000000000001</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>161</v>
@@ -2501,7 +2503,9 @@
       <c r="B11">
         <v>867</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
@@ -2514,11 +2518,11 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>867</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.86699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>47</v>
@@ -2761,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>142674.28</v>
+        <v>138235.28</v>
       </c>
       <c r="P17" s="5">
-        <v>142.67428000000001</v>
+        <v>138.23528000000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4858,7 +4862,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.3134123829414539</v>
+        <v>0.33477406377224472</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4867,11 +4871,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>142674.28</v>
+        <v>138235.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>142.67428000000001</v>
+        <v>138.23527999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34EB297-CE43-4E7A-86D1-7005D1AAEF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78E0F9-2DDE-4388-9943-1BA90BB12087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44617.068676157411" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44618.654934722224" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -982,22 +982,22 @@
   <r>
     <s v="f05a"/>
     <n v="3812"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 14:00"/>
     <x v="4"/>
     <n v="762"/>
-    <n v="3812"/>
-    <n v="3.8119999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f05b"/>
     <n v="752"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 14:00"/>
     <x v="4"/>
     <n v="150"/>
-    <n v="752"/>
-    <n v="0.752"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f06a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2326,10 +2326,10 @@
         <v>19395</v>
       </c>
       <c r="O6" s="5">
-        <v>14956</v>
+        <v>10392</v>
       </c>
       <c r="P6" s="5">
-        <v>14.956</v>
+        <v>10.392000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>138235.28</v>
+        <v>133671.28</v>
       </c>
       <c r="P17" s="5">
-        <v>138.23528000000002</v>
+        <v>133.67128000000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,9 @@
       <c r="B31">
         <v>3812</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
       <c r="D31" t="s">
         <v>102</v>
       </c>
@@ -3158,11 +3160,11 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>3812</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>3.8119999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -3172,7 +3174,9 @@
       <c r="B32">
         <v>752</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
       <c r="D32" t="s">
         <v>102</v>
       </c>
@@ -3185,11 +3189,11 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>0.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -4862,7 +4866,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.33477406377224472</v>
+        <v>0.35673727875573868</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4871,11 +4875,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>138235.28</v>
+        <v>133671.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>138.23527999999999</v>
+        <v>133.67127999999997</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78E0F9-2DDE-4388-9943-1BA90BB12087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DA5208-1213-4DB6-AC3B-E21207D36D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44618.654934722224" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44618.873991898145" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1192,22 +1192,22 @@
   <r>
     <s v="k05a"/>
     <n v="1807"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 14:00"/>
     <x v="4"/>
     <n v="361"/>
-    <n v="1807"/>
-    <n v="1.8069999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k05b"/>
     <n v="827"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 14:00"/>
     <x v="4"/>
     <n v="165"/>
-    <n v="827"/>
-    <n v="0.82699999999999996"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k06a"/>
@@ -2326,10 +2326,10 @@
         <v>19395</v>
       </c>
       <c r="O6" s="5">
-        <v>10392</v>
+        <v>7758</v>
       </c>
       <c r="P6" s="5">
-        <v>10.392000000000001</v>
+        <v>7.758</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>133671.28</v>
+        <v>131037.28</v>
       </c>
       <c r="P17" s="5">
-        <v>133.67128000000002</v>
+        <v>131.03728000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3732,7 +3732,9 @@
       <c r="B52">
         <v>1807</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>94</v>
       </c>
@@ -3745,11 +3747,11 @@
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>1807</v>
+        <v>0</v>
       </c>
       <c r="H52">
         <f t="shared" si="5"/>
-        <v>1.8069999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3759,7 +3761,9 @@
       <c r="B53">
         <v>827</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>94</v>
       </c>
@@ -3772,11 +3776,11 @@
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>827</v>
+        <v>0</v>
       </c>
       <c r="H53">
         <f t="shared" si="5"/>
-        <v>0.82699999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -4866,7 +4870,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.35673727875573868</v>
+        <v>0.36941280642149743</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4875,11 +4879,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>133671.28</v>
+        <v>131037.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>133.67127999999997</v>
+        <v>131.03727999999995</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DA5208-1213-4DB6-AC3B-E21207D36D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3163B-5469-4609-8C56-93C2D2A5A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44618.873991898145" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44620.010961111111" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1352,22 +1352,22 @@
   <r>
     <s v="m05a"/>
     <n v="3287"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 14:00"/>
     <x v="4"/>
     <n v="657"/>
-    <n v="3287"/>
-    <n v="3.2869999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m05b"/>
     <n v="482"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 14:00"/>
     <x v="4"/>
     <n v="96"/>
-    <n v="482"/>
-    <n v="0.48199999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m06a"/>
@@ -2326,10 +2326,10 @@
         <v>19395</v>
       </c>
       <c r="O6" s="5">
-        <v>7758</v>
+        <v>3989</v>
       </c>
       <c r="P6" s="5">
-        <v>7.758</v>
+        <v>3.9889999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>131037.28</v>
+        <v>127268.28</v>
       </c>
       <c r="P17" s="5">
-        <v>131.03728000000001</v>
+        <v>127.26828</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4180,7 +4180,9 @@
       <c r="B68">
         <v>3287</v>
       </c>
-      <c r="C68" s="1"/>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
       <c r="D68" t="s">
         <v>108</v>
       </c>
@@ -4193,11 +4195,11 @@
       </c>
       <c r="G68">
         <f t="shared" si="7"/>
-        <v>3287</v>
+        <v>0</v>
       </c>
       <c r="H68">
         <f t="shared" si="8"/>
-        <v>3.2869999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -4207,7 +4209,9 @@
       <c r="B69">
         <v>482</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
       <c r="D69" t="s">
         <v>108</v>
       </c>
@@ -4220,11 +4224,11 @@
       </c>
       <c r="G69">
         <f t="shared" si="7"/>
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="H69">
         <f t="shared" si="8"/>
-        <v>0.48199999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -4870,7 +4874,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.36941280642149743</v>
+        <v>0.3875502641937999</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4879,11 +4883,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>131037.28</v>
+        <v>127268.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>131.03727999999995</v>
+        <v>127.26827999999995</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3163B-5469-4609-8C56-93C2D2A5A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F31528-C8CC-4ACE-8B5D-B0E0CA64C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44620.010961111111" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44621.879203935183" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1472,22 +1472,22 @@
   <r>
     <s v="o05a"/>
     <n v="3237"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 14:00"/>
     <x v="4"/>
     <n v="647"/>
-    <n v="3237"/>
-    <n v="3.2370000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o05b"/>
     <n v="752"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 14:00"/>
     <x v="4"/>
     <n v="150"/>
-    <n v="752"/>
-    <n v="0.752"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o06a"/>
@@ -2326,10 +2326,10 @@
         <v>19395</v>
       </c>
       <c r="O6" s="5">
-        <v>3989</v>
+        <v>0</v>
       </c>
       <c r="P6" s="5">
-        <v>3.9889999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>127268.28</v>
+        <v>123279.28</v>
       </c>
       <c r="P17" s="5">
-        <v>127.26828</v>
+        <v>123.27928000000003</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4520,7 +4520,9 @@
       <c r="B80">
         <v>3237</v>
       </c>
-      <c r="C80" s="1"/>
+      <c r="C80" s="1">
+        <v>1</v>
+      </c>
       <c r="D80" t="s">
         <v>128</v>
       </c>
@@ -4533,11 +4535,11 @@
       </c>
       <c r="G80">
         <f t="shared" si="7"/>
-        <v>3237</v>
+        <v>0</v>
       </c>
       <c r="H80">
         <f t="shared" si="8"/>
-        <v>3.2370000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,7 +4549,9 @@
       <c r="B81">
         <v>752</v>
       </c>
-      <c r="C81" s="1"/>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
       <c r="D81" t="s">
         <v>128</v>
       </c>
@@ -4560,11 +4564,11 @@
       </c>
       <c r="G81">
         <f t="shared" si="7"/>
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="H81">
         <f t="shared" si="8"/>
-        <v>0.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4874,7 +4878,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.3875502641937999</v>
+        <v>0.40674642207485978</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4883,11 +4887,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>127268.28</v>
+        <v>123279.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>127.26827999999995</v>
+        <v>123.27927999999997</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F31528-C8CC-4ACE-8B5D-B0E0CA64C804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E45884-A08C-441B-93D5-BFECD8AB1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44621.879203935183" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44623.71237789352" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1212,22 +1212,22 @@
   <r>
     <s v="k06a"/>
     <n v="3207"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 15:00"/>
     <x v="5"/>
     <n v="641"/>
-    <n v="3207"/>
-    <n v="3.2069999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k06b"/>
     <n v="342"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 15:00"/>
     <x v="5"/>
     <n v="68"/>
-    <n v="342"/>
-    <n v="0.34200000000000003"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k07a"/>
@@ -2367,10 +2367,10 @@
         <v>15865</v>
       </c>
       <c r="O7" s="5">
-        <v>15865</v>
+        <v>12316</v>
       </c>
       <c r="P7" s="5">
-        <v>15.865000000000002</v>
+        <v>12.316000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2765,10 +2765,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>123279.28</v>
+        <v>119730.28</v>
       </c>
       <c r="P17" s="5">
-        <v>123.27928000000003</v>
+        <v>119.73028000000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3790,7 +3790,9 @@
       <c r="B54">
         <v>3207</v>
       </c>
-      <c r="C54" s="1"/>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>95</v>
       </c>
@@ -3803,11 +3805,11 @@
       </c>
       <c r="G54">
         <f t="shared" si="4"/>
-        <v>3207</v>
+        <v>0</v>
       </c>
       <c r="H54">
         <f t="shared" si="5"/>
-        <v>3.2069999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3817,7 +3819,9 @@
       <c r="B55">
         <v>342</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>95</v>
       </c>
@@ -3830,11 +3834,11 @@
       </c>
       <c r="G55">
         <f t="shared" si="4"/>
-        <v>342</v>
+        <v>0</v>
       </c>
       <c r="H55">
         <f t="shared" si="5"/>
-        <v>0.34200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -4878,7 +4882,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.40674642207485978</v>
+        <v>0.42382517973840483</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4887,11 +4891,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>123279.28</v>
+        <v>119730.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>123.27927999999997</v>
+        <v>119.73027999999996</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E45884-A08C-441B-93D5-BFECD8AB1311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E56E841-8E87-4E15-A915-3AD6D053380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44623.71237789352" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44624.139278125003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -792,22 +792,22 @@
   <r>
     <s v="a06a"/>
     <n v="2187"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 15:00"/>
     <x v="5"/>
     <n v="437"/>
-    <n v="2187"/>
-    <n v="2.1869999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a06b"/>
     <n v="852"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 15:00"/>
     <x v="5"/>
     <n v="170"/>
-    <n v="852"/>
-    <n v="0.85199999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a07a"/>
@@ -2367,10 +2367,10 @@
         <v>15865</v>
       </c>
       <c r="O7" s="5">
-        <v>12316</v>
+        <v>9277</v>
       </c>
       <c r="P7" s="5">
-        <v>12.316000000000001</v>
+        <v>9.2769999999999992</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2544,7 +2544,9 @@
       <c r="B12">
         <v>2187</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>86</v>
       </c>
@@ -2557,11 +2559,11 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>2187</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>2.1869999999999998</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>133</v>
@@ -2583,7 +2585,9 @@
       <c r="B13">
         <v>852</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>86</v>
       </c>
@@ -2596,11 +2600,11 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>852</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.85199999999999998</v>
+        <v>0</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>25</v>
@@ -2765,10 +2769,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>119730.28</v>
+        <v>116691.28</v>
       </c>
       <c r="P17" s="5">
-        <v>119.73028000000002</v>
+        <v>116.69128000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4882,7 +4886,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.42382517973840483</v>
+        <v>0.43844967805892143</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4891,11 +4895,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>119730.28</v>
+        <v>116691.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>119.73027999999996</v>
+        <v>116.69127999999998</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E56E841-8E87-4E15-A915-3AD6D053380E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16149CDC-6524-4D29-95DF-39715CA78187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44624.139278125003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44626.858295254628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1002,22 +1002,22 @@
   <r>
     <s v="f06a"/>
     <n v="3242"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 15:00"/>
     <x v="5"/>
     <n v="648"/>
-    <n v="3242"/>
-    <n v="3.242"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f06b"/>
     <n v="1042"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 15:00"/>
     <x v="5"/>
     <n v="208"/>
-    <n v="1042"/>
-    <n v="1.042"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f07a"/>
@@ -2367,10 +2367,10 @@
         <v>15865</v>
       </c>
       <c r="O7" s="5">
-        <v>9277</v>
+        <v>4993</v>
       </c>
       <c r="P7" s="5">
-        <v>9.2769999999999992</v>
+        <v>4.9929999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>116691.28</v>
+        <v>112407.28</v>
       </c>
       <c r="P17" s="5">
-        <v>116.69128000000001</v>
+        <v>112.40728000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,9 @@
       <c r="B33">
         <v>3242</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
       <c r="D33" t="s">
         <v>103</v>
       </c>
@@ -3220,11 +3222,11 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>3242</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>3.242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,7 +3236,9 @@
       <c r="B34">
         <v>1042</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
       <c r="D34" t="s">
         <v>103</v>
       </c>
@@ -3247,11 +3251,11 @@
       </c>
       <c r="G34">
         <f t="shared" ref="G34:G65" si="4">B34-B34*C34</f>
-        <v>1042</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <f t="shared" ref="H34:H65" si="5">G34/K$2</f>
-        <v>1.042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -4886,7 +4890,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.43844967805892143</v>
+        <v>0.45906545654036057</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4895,11 +4899,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>116691.28</v>
+        <v>112407.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>116.69127999999998</v>
+        <v>112.40727999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16149CDC-6524-4D29-95DF-39715CA78187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A858B09-CA9A-4560-9906-4FE006614756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44626.858295254628" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44627.901963425924" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1372,22 +1372,22 @@
   <r>
     <s v="m06a"/>
     <n v="1752"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 15:00"/>
     <x v="5"/>
     <n v="350"/>
-    <n v="1752"/>
-    <n v="1.752"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m06b"/>
     <n v="1377"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 15:00"/>
     <x v="5"/>
     <n v="275"/>
-    <n v="1377"/>
-    <n v="1.377"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m07a"/>
@@ -2367,10 +2367,10 @@
         <v>15865</v>
       </c>
       <c r="O7" s="5">
-        <v>4993</v>
+        <v>1864</v>
       </c>
       <c r="P7" s="5">
-        <v>4.9929999999999994</v>
+        <v>1.8640000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>112407.28</v>
+        <v>109278.28</v>
       </c>
       <c r="P17" s="5">
-        <v>112.40728000000001</v>
+        <v>109.27828</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,9 @@
       <c r="B70">
         <v>1752</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
       <c r="D70" t="s">
         <v>109</v>
       </c>
@@ -4263,11 +4265,11 @@
       </c>
       <c r="G70">
         <f t="shared" si="7"/>
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="H70">
         <f t="shared" si="8"/>
-        <v>1.752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -4277,7 +4279,9 @@
       <c r="B71">
         <v>1377</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
       <c r="D71" t="s">
         <v>109</v>
       </c>
@@ -4290,11 +4294,11 @@
       </c>
       <c r="G71">
         <f t="shared" si="7"/>
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <f t="shared" si="8"/>
-        <v>1.377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -4890,7 +4894,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.45906545654036057</v>
+        <v>0.47412305945082334</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4899,11 +4903,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>112407.28</v>
+        <v>109278.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>112.40727999999999</v>
+        <v>109.27828</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A858B09-CA9A-4560-9906-4FE006614756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CC33D-2066-4656-9C5D-BEA37FCFCB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44627.901963425924" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44628.488725000003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1492,22 +1492,22 @@
   <r>
     <s v="o06a"/>
     <n v="1487"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 15:00"/>
     <x v="5"/>
     <n v="297"/>
-    <n v="1487"/>
-    <n v="1.4870000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o06b"/>
     <n v="377"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 15:00"/>
     <x v="5"/>
     <n v="75"/>
-    <n v="377"/>
-    <n v="0.377"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o07a"/>
@@ -2367,10 +2367,10 @@
         <v>15865</v>
       </c>
       <c r="O7" s="5">
-        <v>1864</v>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>1.8640000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -2769,10 +2769,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>109278.28</v>
+        <v>107414.28</v>
       </c>
       <c r="P17" s="5">
-        <v>109.27828</v>
+        <v>107.41428000000002</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,9 @@
       <c r="B82">
         <v>1487</v>
       </c>
-      <c r="C82" s="1"/>
+      <c r="C82" s="1">
+        <v>1</v>
+      </c>
       <c r="D82" t="s">
         <v>129</v>
       </c>
@@ -4607,11 +4609,11 @@
       </c>
       <c r="G82">
         <f t="shared" si="7"/>
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="H82">
         <f t="shared" si="8"/>
-        <v>1.4870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4621,7 +4623,9 @@
       <c r="B83">
         <v>377</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
       <c r="D83" t="s">
         <v>129</v>
       </c>
@@ -4634,11 +4638,11 @@
       </c>
       <c r="G83">
         <f t="shared" si="7"/>
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f t="shared" si="8"/>
-        <v>0.377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4894,7 +4898,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.47412305945082334</v>
+        <v>0.48309313673593135</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4903,11 +4907,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>109278.28</v>
+        <v>107414.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>109.27828</v>
+        <v>107.41427999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CC33D-2066-4656-9C5D-BEA37FCFCB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA07B0-3DFE-4AFD-83FC-45E2CC7AB588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="18" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44628.488725000003" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44629.034875231482" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -812,22 +812,22 @@
   <r>
     <s v="a07a"/>
     <n v="2642"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 16:00"/>
     <x v="6"/>
     <n v="528"/>
-    <n v="2642"/>
-    <n v="2.6419999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a07b"/>
     <n v="387"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 16:00"/>
     <x v="6"/>
     <n v="77"/>
-    <n v="387"/>
-    <n v="0.38700000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a08a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2408,10 +2408,10 @@
         <v>16350</v>
       </c>
       <c r="O8" s="5">
-        <v>16350</v>
+        <v>13321</v>
       </c>
       <c r="P8" s="5">
-        <v>16.349999999999998</v>
+        <v>13.320999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,9 @@
       <c r="B14">
         <v>2642</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>87</v>
       </c>
@@ -2639,11 +2641,11 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>2642</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>2.6419999999999999</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>29</v>
@@ -2665,7 +2667,9 @@
       <c r="B15">
         <v>387</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>87</v>
       </c>
@@ -2678,11 +2682,11 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0.38700000000000001</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>165</v>
@@ -2769,10 +2773,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>107414.28</v>
+        <v>104385.28</v>
       </c>
       <c r="P17" s="5">
-        <v>107.41428000000002</v>
+        <v>104.38527999999999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4898,7 +4902,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.48309313673593135</v>
+        <v>0.49766951232423173</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4907,11 +4911,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>107414.28</v>
+        <v>104385.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>107.41427999999999</v>
+        <v>104.38527999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA07B0-3DFE-4AFD-83FC-45E2CC7AB588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B920F-438E-4EE5-A70A-1A97E4B13038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44629.034875231482" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44632.492391319443" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1022,22 +1022,22 @@
   <r>
     <s v="f07a"/>
     <n v="3027"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 16:00"/>
     <x v="6"/>
     <n v="605"/>
-    <n v="3027"/>
-    <n v="3.0270000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f07b"/>
     <n v="1967"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 16:00"/>
     <x v="6"/>
     <n v="393"/>
-    <n v="1967"/>
-    <n v="1.9670000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f08a"/>
@@ -1603,7 +1603,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2408,10 +2408,10 @@
         <v>16350</v>
       </c>
       <c r="O8" s="5">
-        <v>13321</v>
+        <v>8327</v>
       </c>
       <c r="P8" s="5">
-        <v>13.320999999999998</v>
+        <v>8.327</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>104385.28</v>
+        <v>99391.28</v>
       </c>
       <c r="P17" s="5">
-        <v>104.38527999999999</v>
+        <v>99.391279999999995</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,9 @@
       <c r="B35">
         <v>3027</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>104</v>
       </c>
@@ -3282,11 +3284,11 @@
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>3027</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <f t="shared" si="5"/>
-        <v>3.0270000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3296,7 +3298,9 @@
       <c r="B36">
         <v>1967</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
         <v>104</v>
       </c>
@@ -3309,11 +3313,11 @@
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>1967</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>1.9670000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -4902,7 +4906,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.49766951232423173</v>
+        <v>0.52170200479302409</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4911,11 +4915,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>104385.28</v>
+        <v>99391.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>104.38527999999999</v>
+        <v>99.391279999999995</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B920F-438E-4EE5-A70A-1A97E4B13038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2002FBC-4E23-4907-A9D6-43E0C4525E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44632.492391319443" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44633.851869328704" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1232,22 +1232,22 @@
   <r>
     <s v="k07a"/>
     <n v="3222"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 16:00"/>
     <x v="6"/>
     <n v="644"/>
-    <n v="3222"/>
-    <n v="3.222"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k07b"/>
     <n v="192"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 16:00"/>
     <x v="6"/>
     <n v="38"/>
-    <n v="192"/>
-    <n v="0.192"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k08a"/>
@@ -2408,10 +2408,10 @@
         <v>16350</v>
       </c>
       <c r="O8" s="5">
-        <v>8327</v>
+        <v>4913</v>
       </c>
       <c r="P8" s="5">
-        <v>8.327</v>
+        <v>4.9130000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>99391.28</v>
+        <v>95977.279999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>99.391279999999995</v>
+        <v>95.977280000000007</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3864,7 +3864,9 @@
       <c r="B56">
         <v>3222</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="1">
+        <v>1</v>
+      </c>
       <c r="D56" t="s">
         <v>96</v>
       </c>
@@ -3877,11 +3879,11 @@
       </c>
       <c r="G56">
         <f t="shared" si="4"/>
-        <v>3222</v>
+        <v>0</v>
       </c>
       <c r="H56">
         <f t="shared" si="5"/>
-        <v>3.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3891,7 +3893,9 @@
       <c r="B57">
         <v>192</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>96</v>
       </c>
@@ -3904,11 +3908,11 @@
       </c>
       <c r="G57">
         <f t="shared" si="4"/>
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="H57">
         <f t="shared" si="5"/>
-        <v>0.192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -4906,7 +4910,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.52170200479302409</v>
+        <v>0.53813110557165</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4915,11 +4919,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>99391.28</v>
+        <v>95977.279999999999</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>99.391279999999995</v>
+        <v>95.977279999999979</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2002FBC-4E23-4907-A9D6-43E0C4525E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044E14A-CA08-44E1-BF47-6D55DC2D666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44633.851869328704" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44634.069876273148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1392,22 +1392,22 @@
   <r>
     <s v="m07a"/>
     <n v="1882"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 16:00"/>
     <x v="6"/>
     <n v="376"/>
-    <n v="1882"/>
-    <n v="1.8819999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m07b"/>
     <n v="302"/>
-    <m/>
+    <n v="1"/>
     <s v="Мария 16:00"/>
     <x v="6"/>
     <n v="60"/>
-    <n v="302"/>
-    <n v="0.30199999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o02a"/>
@@ -2408,10 +2408,10 @@
         <v>16350</v>
       </c>
       <c r="O8" s="5">
-        <v>4913</v>
+        <v>2729</v>
       </c>
       <c r="P8" s="5">
-        <v>4.9130000000000003</v>
+        <v>2.7290000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>95977.279999999999</v>
+        <v>93793.279999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>95.977280000000007</v>
+        <v>93.79328000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4320,7 +4320,9 @@
       <c r="B72">
         <v>1882</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
       <c r="D72" t="s">
         <v>110</v>
       </c>
@@ -4333,11 +4335,11 @@
       </c>
       <c r="G72">
         <f t="shared" si="7"/>
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="H72">
         <f t="shared" si="8"/>
-        <v>1.8819999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -4347,7 +4349,9 @@
       <c r="B73">
         <v>302</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1">
+        <v>1</v>
+      </c>
       <c r="D73" t="s">
         <v>110</v>
       </c>
@@ -4360,11 +4364,11 @@
       </c>
       <c r="G73">
         <f t="shared" si="7"/>
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f t="shared" si="8"/>
-        <v>0.30199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -4910,7 +4914,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.53813110557165</v>
+        <v>0.5486411102876777</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4919,11 +4923,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>95977.279999999999</v>
+        <v>93793.279999999999</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>95.977279999999979</v>
+        <v>93.793279999999996</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044E14A-CA08-44E1-BF47-6D55DC2D666A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE014305-2FAE-426D-BC59-D8915D0BBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44634.069876273148" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44636.079245601853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1512,22 +1512,22 @@
   <r>
     <s v="o07a"/>
     <n v="1917"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 16:00"/>
     <x v="6"/>
     <n v="383"/>
-    <n v="1917"/>
-    <n v="1.917"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o07b"/>
     <n v="812"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 16:00"/>
     <x v="6"/>
     <n v="162"/>
-    <n v="812"/>
-    <n v="0.81200000000000006"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o08a"/>
@@ -2408,10 +2408,10 @@
         <v>16350</v>
       </c>
       <c r="O8" s="5">
-        <v>2729</v>
+        <v>0</v>
       </c>
       <c r="P8" s="5">
-        <v>2.7290000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2773,10 +2773,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>93793.279999999999</v>
+        <v>91064.28</v>
       </c>
       <c r="P17" s="5">
-        <v>93.79328000000001</v>
+        <v>91.064279999999997</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,9 @@
       <c r="B84">
         <v>1917</v>
       </c>
-      <c r="C84" s="1"/>
+      <c r="C84" s="1">
+        <v>1</v>
+      </c>
       <c r="D84" t="s">
         <v>130</v>
       </c>
@@ -4681,11 +4683,11 @@
       </c>
       <c r="G84">
         <f t="shared" si="7"/>
-        <v>1917</v>
+        <v>0</v>
       </c>
       <c r="H84">
         <f t="shared" si="8"/>
-        <v>1.917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4695,7 +4697,9 @@
       <c r="B85">
         <v>812</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
       <c r="D85" t="s">
         <v>130</v>
       </c>
@@ -4708,11 +4712,11 @@
       </c>
       <c r="G85">
         <f t="shared" si="7"/>
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <f t="shared" si="8"/>
-        <v>0.81200000000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4914,7 +4918,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.5486411102876777</v>
+        <v>0.56177380390949083</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4923,11 +4927,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>93793.279999999999</v>
+        <v>91064.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>93.793279999999996</v>
+        <v>91.064279999999997</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25109"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE014305-2FAE-426D-BC59-D8915D0BBD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC166A09-B7E1-41D7-91AE-7098630F296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44636.079245601853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44638.115954629633" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -832,22 +832,22 @@
   <r>
     <s v="a08a"/>
     <n v="2737"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 17:00"/>
     <x v="7"/>
     <n v="547"/>
-    <n v="2737"/>
-    <n v="2.7370000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a08b"/>
     <n v="167"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 17:00"/>
     <x v="7"/>
     <n v="33"/>
-    <n v="167"/>
-    <n v="0.16700000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a09a"/>
@@ -2449,10 +2449,10 @@
         <v>14461</v>
       </c>
       <c r="O9" s="5">
-        <v>14461</v>
+        <v>11557</v>
       </c>
       <c r="P9" s="5">
-        <v>14.461</v>
+        <v>11.557</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2708,7 +2708,9 @@
       <c r="B16">
         <v>2737</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
@@ -2721,11 +2723,11 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>2737</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>2.7370000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>166</v>
@@ -2747,7 +2749,9 @@
       <c r="B17">
         <v>167</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
       <c r="D17" t="s">
         <v>88</v>
       </c>
@@ -2760,11 +2764,11 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>152</v>
@@ -2773,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>91064.28</v>
+        <v>88160.28</v>
       </c>
       <c r="P17" s="5">
-        <v>91.064279999999997</v>
+        <v>88.16028</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4918,7 +4922,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.56177380390949083</v>
+        <v>0.57574864534508818</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4927,11 +4931,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>91064.28</v>
+        <v>88160.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>91.064279999999997</v>
+        <v>88.160279999999986</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC166A09-B7E1-41D7-91AE-7098630F296D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C69A1-3640-4D7E-856B-1021FCA69793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44638.115954629633" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44642.640267013892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1042,22 +1042,22 @@
   <r>
     <s v="f08a"/>
     <n v="3167"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 17:00"/>
     <x v="7"/>
     <n v="633"/>
-    <n v="3167"/>
-    <n v="3.1669999999999998"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f08b"/>
     <n v="1487"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 17:00"/>
     <x v="7"/>
     <n v="297"/>
-    <n v="1487"/>
-    <n v="1.4870000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f09a"/>
@@ -2449,10 +2449,10 @@
         <v>14461</v>
       </c>
       <c r="O9" s="5">
-        <v>11557</v>
+        <v>6903</v>
       </c>
       <c r="P9" s="5">
-        <v>11.557</v>
+        <v>6.9030000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>88160.28</v>
+        <v>83506.28</v>
       </c>
       <c r="P17" s="5">
-        <v>88.16028</v>
+        <v>83.506280000000004</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,9 @@
       <c r="B37">
         <v>3167</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
       <c r="D37" t="s">
         <v>105</v>
       </c>
@@ -3344,11 +3346,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>3167</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f t="shared" si="5"/>
-        <v>3.1669999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -3358,7 +3360,9 @@
       <c r="B38">
         <v>1487</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
       <c r="D38" t="s">
         <v>105</v>
       </c>
@@ -3371,11 +3375,11 @@
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>1.4870000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,7 +4926,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.57574864534508818</v>
+        <v>0.5981449649185282</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4931,11 +4935,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>88160.28</v>
+        <v>83506.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>88.160279999999986</v>
+        <v>83.50627999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C69A1-3640-4D7E-856B-1021FCA69793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62A2CD-53CA-4527-909A-D11F0018B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44642.640267013892" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44643.979278819446" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1252,22 +1252,22 @@
   <r>
     <s v="k08a"/>
     <n v="3007"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 17:00"/>
     <x v="7"/>
     <n v="601"/>
-    <n v="3007"/>
-    <n v="3.0070000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k08b"/>
     <n v="637"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 17:00"/>
     <x v="7"/>
     <n v="127"/>
-    <n v="637"/>
-    <n v="0.63700000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k09a"/>
@@ -2449,10 +2449,10 @@
         <v>14461</v>
       </c>
       <c r="O9" s="5">
-        <v>6903</v>
+        <v>3259</v>
       </c>
       <c r="P9" s="5">
-        <v>6.9030000000000005</v>
+        <v>3.2590000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>83506.28</v>
+        <v>79862.28</v>
       </c>
       <c r="P17" s="5">
-        <v>83.506280000000004</v>
+        <v>79.862279999999998</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3930,7 +3930,9 @@
       <c r="B58">
         <v>3007</v>
       </c>
-      <c r="C58" s="1"/>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>97</v>
       </c>
@@ -3943,11 +3945,11 @@
       </c>
       <c r="G58">
         <f t="shared" si="4"/>
-        <v>3007</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <f t="shared" si="5"/>
-        <v>3.0070000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3957,7 +3959,9 @@
       <c r="B59">
         <v>637</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>97</v>
       </c>
@@ -3970,11 +3974,11 @@
       </c>
       <c r="G59">
         <f t="shared" si="4"/>
-        <v>637</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <f t="shared" si="5"/>
-        <v>0.63700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -4926,7 +4930,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.5981449649185282</v>
+        <v>0.61568088853812764</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4935,11 +4939,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>83506.28</v>
+        <v>79862.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>83.50627999999999</v>
+        <v>79.862279999999984</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25121"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C62A2CD-53CA-4527-909A-D11F0018B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAD0F0-E356-4264-8AB1-4B8D4DDB1C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44643.979278819446" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44645.434216666668" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1532,22 +1532,22 @@
   <r>
     <s v="o08a"/>
     <n v="2942"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 17:00"/>
     <x v="7"/>
     <n v="588"/>
-    <n v="2942"/>
-    <n v="2.9420000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="o08b"/>
     <n v="317"/>
-    <m/>
+    <n v="1"/>
     <s v="Осава 17:00"/>
     <x v="7"/>
     <n v="63"/>
-    <n v="317"/>
-    <n v="0.317"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="s01a"/>
@@ -2449,10 +2449,10 @@
         <v>14461</v>
       </c>
       <c r="O9" s="5">
-        <v>3259</v>
+        <v>0</v>
       </c>
       <c r="P9" s="5">
-        <v>3.2590000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>79862.28</v>
+        <v>76603.28</v>
       </c>
       <c r="P17" s="5">
-        <v>79.862279999999998</v>
+        <v>76.603279999999998</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,9 @@
       <c r="B86">
         <v>2942</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1">
+        <v>1</v>
+      </c>
       <c r="D86" t="s">
         <v>131</v>
       </c>
@@ -4751,11 +4753,11 @@
       </c>
       <c r="G86">
         <f t="shared" si="7"/>
-        <v>2942</v>
+        <v>0</v>
       </c>
       <c r="H86">
         <f t="shared" si="8"/>
-        <v>2.9420000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4765,7 +4767,9 @@
       <c r="B87">
         <v>317</v>
       </c>
-      <c r="C87" s="1"/>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
       <c r="D87" t="s">
         <v>131</v>
       </c>
@@ -4778,11 +4782,11 @@
       </c>
       <c r="G87">
         <f t="shared" si="7"/>
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="H87">
         <f t="shared" si="8"/>
-        <v>0.317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4930,7 +4934,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.61568088853812764</v>
+        <v>0.63136408696740165</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4939,11 +4943,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>79862.28</v>
+        <v>76603.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>79.862279999999984</v>
+        <v>76.603279999999984</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDAD0F0-E356-4264-8AB1-4B8D4DDB1C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CC809-E657-45A5-8938-00E09AC23995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44645.434216666668" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44647.625289004631" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -852,22 +852,22 @@
   <r>
     <s v="a09a"/>
     <n v="4702"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 18:00"/>
     <x v="8"/>
     <n v="940"/>
-    <n v="4702"/>
-    <n v="4.702"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="a09b"/>
     <n v="1382"/>
-    <m/>
+    <n v="1"/>
     <s v="Ачи 18:00"/>
     <x v="8"/>
     <n v="276"/>
-    <n v="1382"/>
-    <n v="1.3819999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="arasuji"/>
@@ -2490,10 +2490,10 @@
         <v>30530</v>
       </c>
       <c r="O10" s="5">
-        <v>30530</v>
+        <v>24446</v>
       </c>
       <c r="P10" s="5">
-        <v>30.53</v>
+        <v>24.446000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>76603.28</v>
+        <v>70519.28</v>
       </c>
       <c r="P17" s="5">
-        <v>76.603279999999998</v>
+        <v>70.519279999999995</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2790,7 +2790,9 @@
       <c r="B18">
         <v>4702</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
         <v>89</v>
       </c>
@@ -2803,11 +2805,11 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>4702</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>4.702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2817,7 +2819,9 @@
       <c r="B19">
         <v>1382</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>89</v>
       </c>
@@ -2830,11 +2834,11 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>1382</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>1.3819999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -4934,7 +4938,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.63136408696740165</v>
+        <v>0.66064195724776464</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4943,11 +4947,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>76603.28</v>
+        <v>70519.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>76.603279999999984</v>
+        <v>70.519279999999995</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4CC809-E657-45A5-8938-00E09AC23995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F27AB3-90B3-4413-937C-C67E13A53708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44647.625289004631" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44648.975195486113" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1062,22 +1062,22 @@
   <r>
     <s v="f09a"/>
     <n v="3342"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 18:00"/>
     <x v="8"/>
     <n v="668"/>
-    <n v="3342"/>
-    <n v="3.3420000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f09b"/>
     <n v="3962"/>
-    <m/>
+    <n v="1"/>
     <s v="Минорикава 18:00"/>
     <x v="8"/>
     <n v="792"/>
-    <n v="3962"/>
-    <n v="3.9620000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="inbou"/>
@@ -2490,10 +2490,10 @@
         <v>30530</v>
       </c>
       <c r="O10" s="5">
-        <v>24446</v>
+        <v>17142</v>
       </c>
       <c r="P10" s="5">
-        <v>24.446000000000002</v>
+        <v>17.141999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>70519.28</v>
+        <v>63215.28</v>
       </c>
       <c r="P17" s="5">
-        <v>70.519279999999995</v>
+        <v>63.21528</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3393,7 +3393,9 @@
       <c r="B39">
         <v>3342</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
       <c r="D39" t="s">
         <v>106</v>
       </c>
@@ -3406,11 +3408,11 @@
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>3342</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f t="shared" si="5"/>
-        <v>3.3420000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3420,7 +3422,9 @@
       <c r="B40">
         <v>3962</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
       <c r="D40" t="s">
         <v>106</v>
       </c>
@@ -3433,11 +3437,11 @@
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>3962</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f t="shared" si="5"/>
-        <v>3.9620000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -4938,7 +4942,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.66064195724776464</v>
+        <v>0.69579080085850953</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4947,11 +4951,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>70519.28</v>
+        <v>63215.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>70.519279999999995</v>
+        <v>63.215279999999993</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25121"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F27AB3-90B3-4413-937C-C67E13A53708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB70127-0DE1-45FA-98BA-F6B487364FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44648.975195486113" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44654.983426851853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1272,22 +1272,22 @@
   <r>
     <s v="k09a"/>
     <n v="5152"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 18:00"/>
     <x v="8"/>
     <n v="1030"/>
-    <n v="5152"/>
-    <n v="5.1520000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k09b"/>
     <n v="1597"/>
-    <m/>
+    <n v="1"/>
     <s v="Кано 18:00"/>
     <x v="8"/>
     <n v="319"/>
-    <n v="1597"/>
-    <n v="1.597"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="m02a"/>
@@ -2490,10 +2490,10 @@
         <v>30530</v>
       </c>
       <c r="O10" s="5">
-        <v>17142</v>
+        <v>10393</v>
       </c>
       <c r="P10" s="5">
-        <v>17.141999999999999</v>
+        <v>10.393000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>63215.28</v>
+        <v>56466.28</v>
       </c>
       <c r="P17" s="5">
-        <v>63.21528</v>
+        <v>56.466280000000005</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3996,7 +3996,9 @@
       <c r="B60">
         <v>5152</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
       <c r="D60" t="s">
         <v>98</v>
       </c>
@@ -4009,11 +4011,11 @@
       </c>
       <c r="G60">
         <f t="shared" si="4"/>
-        <v>5152</v>
+        <v>0</v>
       </c>
       <c r="H60">
         <f t="shared" si="5"/>
-        <v>5.1520000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -4023,7 +4025,9 @@
       <c r="B61">
         <v>1597</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
       <c r="D61" t="s">
         <v>98</v>
       </c>
@@ -4036,11 +4040,11 @@
       </c>
       <c r="G61">
         <f t="shared" si="4"/>
-        <v>1597</v>
+        <v>0</v>
       </c>
       <c r="H61">
         <f t="shared" si="5"/>
-        <v>1.597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -4942,7 +4946,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.69579080085850953</v>
+        <v>0.72826883283125277</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4951,11 +4955,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>63215.28</v>
+        <v>56466.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>63.215279999999993</v>
+        <v>56.466279999999998</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB70127-0DE1-45FA-98BA-F6B487364FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55D658-9564-4355-A1D7-139EF9CE35D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44654.983426851853" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44657.834769560184" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1092,22 +1092,22 @@
   <r>
     <s v="j09a"/>
     <n v="3072"/>
-    <m/>
+    <n v="1"/>
     <s v="Стэнли 18:00"/>
     <x v="8"/>
     <n v="614"/>
-    <n v="3072"/>
-    <n v="3.0720000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="j09b"/>
     <n v="1897"/>
-    <m/>
+    <n v="1"/>
     <s v="Стэнли 18:00"/>
     <x v="8"/>
     <n v="379"/>
-    <n v="1897"/>
-    <n v="1.897"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="k01a"/>
@@ -2490,10 +2490,10 @@
         <v>30530</v>
       </c>
       <c r="O10" s="5">
-        <v>10393</v>
+        <v>5424</v>
       </c>
       <c r="P10" s="5">
-        <v>10.393000000000001</v>
+        <v>5.4239999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>56466.28</v>
+        <v>51497.279999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>56.466280000000005</v>
+        <v>51.497280000000003</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -3478,7 +3478,9 @@
       <c r="B42">
         <v>3072</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
@@ -3491,11 +3493,11 @@
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>3072</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <f t="shared" si="5"/>
-        <v>3.0720000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3505,7 +3507,9 @@
       <c r="B43">
         <v>1897</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
@@ -3518,11 +3522,11 @@
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>1897</v>
+        <v>0</v>
       </c>
       <c r="H43">
         <f t="shared" si="5"/>
-        <v>1.897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -4946,7 +4950,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.72826883283125277</v>
+        <v>0.75218101846950458</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4955,11 +4959,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>56466.28</v>
+        <v>51497.279999999999</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>56.466279999999998</v>
+        <v>51.497280000000003</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C55D658-9564-4355-A1D7-139EF9CE35D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56605BB-4901-4B4E-A6D4-BC5C4E275553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44657.834769560184" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44658.508374884259" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -1572,22 +1572,22 @@
   <r>
     <s v="t09a"/>
     <n v="3332"/>
-    <m/>
+    <n v="1"/>
     <s v="Татено 18:00"/>
     <x v="8"/>
     <n v="666"/>
-    <n v="3332"/>
-    <n v="3.3319999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="t09b"/>
     <n v="2092"/>
-    <m/>
+    <n v="1"/>
     <s v="Татено 18:00"/>
     <x v="8"/>
     <n v="418"/>
-    <n v="2092"/>
-    <n v="2.0920000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="tip"/>
@@ -2490,10 +2490,10 @@
         <v>30530</v>
       </c>
       <c r="O10" s="5">
-        <v>5424</v>
+        <v>0</v>
       </c>
       <c r="P10" s="5">
-        <v>5.4239999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>51497.279999999999</v>
+        <v>46073.279999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>51.497280000000003</v>
+        <v>46.073279999999997</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,9 @@
       <c r="B90">
         <v>3332</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
       <c r="D90" t="s">
         <v>138</v>
       </c>
@@ -4879,11 +4881,11 @@
       </c>
       <c r="G90">
         <f t="shared" si="7"/>
-        <v>3332</v>
+        <v>0</v>
       </c>
       <c r="H90">
         <f t="shared" si="8"/>
-        <v>3.3319999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4893,7 +4895,9 @@
       <c r="B91">
         <v>2092</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
       <c r="D91" t="s">
         <v>138</v>
       </c>
@@ -4906,11 +4910,11 @@
       </c>
       <c r="G91">
         <f t="shared" si="7"/>
-        <v>2092</v>
+        <v>0</v>
       </c>
       <c r="H91">
         <f t="shared" si="8"/>
-        <v>2.0920000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4950,7 +4954,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.75218101846950458</v>
+        <v>0.77828278842359555</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4959,11 +4963,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>51497.279999999999</v>
+        <v>46073.279999999999</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>51.497280000000003</v>
+        <v>46.073279999999997</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56605BB-4901-4B4E-A6D4-BC5C4E275553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A7CD45-5E7B-48DB-837F-440D264B6B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44658.508374884259" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44659.818701157405" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -902,22 +902,22 @@
   <r>
     <s v="epi"/>
     <n v="3572"/>
-    <m/>
+    <n v="1"/>
     <s v="Эпилог"/>
     <x v="11"/>
     <n v="714"/>
-    <n v="3572"/>
-    <n v="3.5720000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="epi_b"/>
     <n v="1372"/>
-    <m/>
+    <n v="1"/>
     <s v="Эпилог"/>
     <x v="11"/>
     <n v="274"/>
-    <n v="1372"/>
-    <n v="1.3720000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="f02a"/>
@@ -2654,10 +2654,10 @@
         <v>4944</v>
       </c>
       <c r="O14" s="5">
-        <v>4944</v>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
-        <v>4.944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>46073.279999999999</v>
+        <v>41129.279999999999</v>
       </c>
       <c r="P17" s="5">
-        <v>46.073279999999997</v>
+        <v>41.129280000000001</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2933,7 +2933,9 @@
       <c r="B23">
         <v>3572</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
       <c r="D23" t="s">
         <v>29</v>
       </c>
@@ -2946,11 +2948,11 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>3572</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>3.5720000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -2960,7 +2962,9 @@
       <c r="B24">
         <v>1372</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
@@ -2973,11 +2977,11 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>1.3720000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -4954,7 +4958,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.77828278842359555</v>
+        <v>0.80207466723130671</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4963,11 +4967,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>46073.279999999999</v>
+        <v>41129.279999999999</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>46.073279999999997</v>
+        <v>41.129279999999994</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A7CD45-5E7B-48DB-837F-440D264B6B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660800D-28DD-467D-8BA7-7645B5F3696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44659.818701157405" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44671.027838194444" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -882,12 +882,12 @@
   <r>
     <s v="c01a"/>
     <n v="11962"/>
-    <m/>
+    <n v="1"/>
     <s v="Ханаан"/>
     <x v="10"/>
     <n v="2392"/>
-    <n v="11962"/>
-    <n v="11.962"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="e01a"/>
@@ -1552,12 +1552,12 @@
   <r>
     <s v="s01a"/>
     <n v="4522"/>
-    <m/>
+    <n v="1"/>
     <s v="Сузуне"/>
     <x v="13"/>
     <n v="904"/>
-    <n v="4522"/>
-    <n v="4.5220000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="sub"/>
@@ -1592,18 +1592,18 @@
   <r>
     <s v="tip"/>
     <n v="6157"/>
-    <m/>
+    <n v="1"/>
     <s v="Подсказки"/>
     <x v="9"/>
     <n v="1231"/>
-    <n v="6157"/>
-    <n v="6.157"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2572,10 +2572,10 @@
         <v>4522</v>
       </c>
       <c r="O12" s="5">
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="P12" s="5">
-        <v>4.5220000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2613,10 +2613,10 @@
         <v>11962</v>
       </c>
       <c r="O13" s="5">
-        <v>11962</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
-        <v>11.962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -2695,10 +2695,10 @@
         <v>11751</v>
       </c>
       <c r="O15" s="5">
-        <v>10831.279999999999</v>
+        <v>4674.28</v>
       </c>
       <c r="P15" s="5">
-        <v>10.83128</v>
+        <v>4.6742799999999995</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2777,10 +2777,10 @@
         <v>207802</v>
       </c>
       <c r="O17" s="5">
-        <v>41129.279999999999</v>
+        <v>18488.28</v>
       </c>
       <c r="P17" s="5">
-        <v>41.129280000000001</v>
+        <v>18.48828</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,9 @@
       <c r="B21">
         <v>11962</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
@@ -2890,11 +2892,11 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>11962</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>11.962</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -4816,7 +4818,9 @@
       <c r="B88">
         <v>4522</v>
       </c>
-      <c r="C88" s="1"/>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
       <c r="D88" t="s">
         <v>133</v>
       </c>
@@ -4829,11 +4833,11 @@
       </c>
       <c r="G88">
         <f t="shared" si="7"/>
-        <v>4522</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <f t="shared" si="8"/>
-        <v>4.5220000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4928,7 +4932,9 @@
       <c r="B92">
         <v>6157</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
       <c r="D92" t="s">
         <v>140</v>
       </c>
@@ -4941,11 +4947,11 @@
       </c>
       <c r="G92">
         <f t="shared" si="7"/>
-        <v>6157</v>
+        <v>0</v>
       </c>
       <c r="H92">
         <f t="shared" si="8"/>
-        <v>6.157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4958,7 +4964,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.80207466723130671</v>
+        <v>0.91102934524210544</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4967,11 +4973,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>41129.279999999999</v>
+        <v>18488.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>41.129279999999994</v>
+        <v>18.48828</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1660800D-28DD-467D-8BA7-7645B5F3696D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD396A-03D0-4D56-B8DD-8C719B60F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="167">
   <si>
     <t>Файл</t>
   </si>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44671.027838194444" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44671.097262499999" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -649,7 +649,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Блок" numFmtId="49">
-      <sharedItems containsBlank="1" count="17">
+      <sharedItems containsBlank="1" count="18">
         <s v="10:00"/>
         <s v="11:00"/>
         <s v="12:00"/>
@@ -661,6 +661,7 @@
         <s v="18:00"/>
         <s v="Остальное"/>
         <s v="Ханаан"/>
+        <s v="Чистюля"/>
         <s v="Эпилог"/>
         <s v="Заговор"/>
         <s v="Сузуне"/>
@@ -894,7 +895,7 @@
     <n v="5252"/>
     <n v="0.11"/>
     <s v="Чистюля"/>
-    <x v="9"/>
+    <x v="11"/>
     <n v="1050"/>
     <n v="4674.28"/>
     <n v="4.6742799999999995"/>
@@ -904,7 +905,7 @@
     <n v="3572"/>
     <n v="1"/>
     <s v="Эпилог"/>
-    <x v="11"/>
+    <x v="12"/>
     <n v="714"/>
     <n v="0"/>
     <n v="0"/>
@@ -914,7 +915,7 @@
     <n v="1372"/>
     <n v="1"/>
     <s v="Эпилог"/>
-    <x v="11"/>
+    <x v="12"/>
     <n v="274"/>
     <n v="0"/>
     <n v="0"/>
@@ -1082,12 +1083,12 @@
   <r>
     <s v="inbou"/>
     <n v="272"/>
-    <m/>
+    <n v="1"/>
     <s v="Заговор"/>
-    <x v="12"/>
+    <x v="13"/>
     <n v="54"/>
-    <n v="272"/>
-    <n v="0.27200000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="j09a"/>
@@ -1554,7 +1555,7 @@
     <n v="4522"/>
     <n v="1"/>
     <s v="Сузуне"/>
-    <x v="13"/>
+    <x v="14"/>
     <n v="904"/>
     <n v="0"/>
     <n v="0"/>
@@ -1564,7 +1565,7 @@
     <n v="13542"/>
     <m/>
     <s v="Специальные эпизоды"/>
-    <x v="14"/>
+    <x v="15"/>
     <n v="2708"/>
     <n v="13542"/>
     <n v="13.542"/>
@@ -1604,14 +1605,14 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
-  <location ref="M1:P17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="M1:P18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="18">
+      <items count="19">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -1621,14 +1622,15 @@
         <item x="6"/>
         <item x="7"/>
         <item x="8"/>
+        <item x="13"/>
+        <item m="1" x="17"/>
+        <item x="14"/>
+        <item x="10"/>
         <item x="12"/>
         <item m="1" x="16"/>
-        <item x="13"/>
-        <item x="10"/>
+        <item x="9"/>
+        <item x="15"/>
         <item x="11"/>
-        <item m="1" x="15"/>
-        <item x="9"/>
-        <item x="14"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1639,7 +1641,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="16">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -1684,6 +1686,9 @@
     </i>
     <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -2531,10 +2536,10 @@
         <v>272</v>
       </c>
       <c r="O11" s="5">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="P11" s="5">
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2692,13 +2697,13 @@
         <v>165</v>
       </c>
       <c r="N15" s="5">
-        <v>11751</v>
+        <v>6499</v>
       </c>
       <c r="O15" s="5">
-        <v>4674.28</v>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
-        <v>4.6742799999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -2771,16 +2776,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="N17" s="5">
-        <v>207802</v>
+        <v>5252</v>
       </c>
       <c r="O17" s="5">
-        <v>18488.28</v>
+        <v>4674.28</v>
       </c>
       <c r="P17" s="5">
-        <v>18.48828</v>
+        <v>4.6742799999999995</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2811,6 +2816,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="5">
+        <v>207802</v>
+      </c>
+      <c r="O18" s="5">
+        <v>18216.28</v>
+      </c>
+      <c r="P18" s="5">
+        <v>18.216279999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2913,7 +2930,7 @@
         <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
@@ -3457,7 +3474,9 @@
       <c r="B41">
         <v>272</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>47</v>
       </c>
@@ -3470,11 +3489,11 @@
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="5"/>
-        <v>0.27200000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -4964,7 +4983,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.91102934524210544</v>
+        <v>0.91233828355838731</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4973,11 +4992,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>18488.28</v>
+        <v>18216.28</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>18.48828</v>
+        <v>18.216279999999998</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25211"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAD396A-03D0-4D56-B8DD-8C719B60F3A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA06CB-DD37-4562-BE94-1DE45D157119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44671.097262499999" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44675.500850694443" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -643,7 +643,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="167" maxValue="13542"/>
     </cacheField>
     <cacheField name="Готовность" numFmtId="10">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.11" maxValue="1"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="Описание" numFmtId="0">
       <sharedItems/>
@@ -674,7 +674,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="33" maxValue="2708"/>
     </cacheField>
     <cacheField name="Остаток строк" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13542"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13542"/>
     </cacheField>
     <cacheField name="Остаток дней" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13.542"/>
@@ -893,12 +893,12 @@
   <r>
     <s v="e01a"/>
     <n v="5252"/>
-    <n v="0.11"/>
+    <n v="1"/>
     <s v="Чистюля"/>
     <x v="11"/>
     <n v="1050"/>
-    <n v="4674.28"/>
-    <n v="4.6742799999999995"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="epi"/>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2782,10 +2782,10 @@
         <v>5252</v>
       </c>
       <c r="O17" s="5">
-        <v>4674.28</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
-        <v>4.6742799999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>207802</v>
       </c>
       <c r="O18" s="5">
-        <v>18216.28</v>
+        <v>13542</v>
       </c>
       <c r="P18" s="5">
-        <v>18.216279999999998</v>
+        <v>13.542</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>5252</v>
       </c>
       <c r="C22" s="1">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -2938,11 +2938,11 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>4674.28</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>4.6742799999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.91233828355838731</v>
+        <v>0.93483219603276191</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4992,11 +4992,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>18216.28</v>
+        <v>13542</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>18.216279999999998</v>
+        <v>13.542</v>
       </c>
     </row>
   </sheetData>

--- a/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
+++ b/ShibuyaTools/patch/ru/doc/Прогресс.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\windows\repos\ShibuyaTools\ShibuyaTools\patch\ru\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEA06CB-DD37-4562-BE94-1DE45D157119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4C8CB0-CB88-4D00-8D6A-0414859EC931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE3EAD14-8F92-4070-BC1A-4C00A9A9DA0F}"/>
   </bookViews>
@@ -631,7 +631,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44675.500850694443" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Михаил Гирба" refreshedDate="44690.777103356479" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="91" xr:uid="{8682939B-FB65-48FB-B02E-5C73E26C70C9}">
   <cacheSource type="worksheet">
     <worksheetSource name="Таблица1"/>
   </cacheSource>
@@ -643,7 +643,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="167" maxValue="13542"/>
     </cacheField>
     <cacheField name="Готовность" numFmtId="10">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="Описание" numFmtId="0">
       <sharedItems/>
@@ -674,10 +674,10 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="33" maxValue="2708"/>
     </cacheField>
     <cacheField name="Остаток строк" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="13542"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="Остаток дней" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="13.542"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1563,12 +1563,12 @@
   <r>
     <s v="sub"/>
     <n v="13542"/>
-    <m/>
+    <n v="1"/>
     <s v="Специальные эпизоды"/>
     <x v="15"/>
     <n v="2708"/>
-    <n v="13542"/>
-    <n v="13.542"/>
+    <n v="0"/>
+    <n v="0"/>
   </r>
   <r>
     <s v="t09a"/>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6944411A-7724-4BF8-9224-2236E778031A}" name="Сводная таблица2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Блок">
   <location ref="M1:P18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -2741,10 +2741,10 @@
         <v>13542</v>
       </c>
       <c r="O16" s="5">
-        <v>13542</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>13.542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>207802</v>
       </c>
       <c r="O18" s="5">
-        <v>13542</v>
+        <v>0</v>
       </c>
       <c r="P18" s="5">
-        <v>13.542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -4866,7 +4866,10 @@
       <c r="B89">
         <v>13542</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1">
+        <f>22/22</f>
+        <v>1</v>
+      </c>
       <c r="D89" t="s">
         <v>135</v>
       </c>
@@ -4879,11 +4882,11 @@
       </c>
       <c r="G89">
         <f t="shared" si="7"/>
-        <v>13542</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <f t="shared" si="8"/>
-        <v>13.542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4983,7 +4986,7 @@
       </c>
       <c r="C93" s="1">
         <f>1-SUM(G2:G92)/SUM(B2:B92)</f>
-        <v>0.93483219603276191</v>
+        <v>1</v>
       </c>
       <c r="D93"/>
       <c r="F93">
@@ -4992,11 +4995,11 @@
       </c>
       <c r="G93">
         <f>SUBTOTAL(109,Таблица1[Остаток строк])</f>
-        <v>13542</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <f>SUBTOTAL(109,Таблица1[Остаток дней])</f>
-        <v>13.542</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
